--- a/ykodama/ddbj_packages/excel/MIMS.me.human-skin.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMS.me.human-skin.4.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>
@@ -106,7 +106,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of sampling (eg, 2008-01-23, 2008-01)</t>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
         </r>
       </text>
     </comment>
@@ -119,7 +119,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the broad ecological context of a sample</t>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -132,7 +132,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the local environment.</t>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -145,7 +145,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event.</t>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -158,7 +158,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Geographical origin of the sample (eg, "Japan:Kanagawa, Hakone, Lake Ashi")</t>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
         </r>
       </text>
     </comment>
@@ -171,7 +171,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained</t>
+          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
         </r>
       </text>
     </comment>
@@ -184,7 +184,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The geographical coordinates of the location in decimal degrees latitude and longitude (eg, 47.94 N 28.12 W)</t>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
         </r>
       </text>
     </comment>
@@ -197,7 +197,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>list of chemical compounds administered to the host or site where sampling occurred, and when</t>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
         </r>
       </text>
     </comment>
@@ -210,7 +210,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>history of dermatology disorders</t>
+          <t>history of dermatology disorders; can include multiple disorders</t>
         </r>
       </text>
     </comment>
@@ -249,7 +249,33 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Age of host</t>
+          <t>Age of host at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>body mass index of the host, calculated as weight/(height)squared</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>substance produced by the host, e.g. stool, mucus, where the sample was obtained from</t>
         </r>
       </text>
     </comment>
@@ -275,7 +301,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>type of diet depending on the sample for animals omnivore, herbivore etc., for humans high-fat, meditteranean etc.</t>
+          <t>type of diet depending on the sample for animals omnivore, herbivore etc., for humans high-fat, meditteranean etc.; can include multiple diet types</t>
         </r>
       </text>
     </comment>
@@ -288,7 +314,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Name of relevant disease</t>
+          <t>Name of relevant disease, e.g. Salmonella gastroenteritis. For the controlled vocabulary, please see Human Disease Ontology, http://bioportal.bioontology.org/ontologies/1009 or MeSH, http://www.ncbi.nlm.nih.gov/mesh</t>
         </r>
       </text>
     </comment>
@@ -305,6 +331,45 @@
         </r>
       </text>
     </comment>
+    <comment ref="AA13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>content of last meal and time since feeding; can include multiple values</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>most frequent job performed by subject</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>resting pulse of the host, measured as beats per minute</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AE13" authorId="0">
       <text>
         <r>
@@ -340,7 +405,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Type of tissue the initial sample was taken from</t>
+          <t>Type of tissue the initial sample was taken from. Controlled vocabulary, http://bioportal.bioontology.org/ontologies/1005</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total mass of the host at collection, the unit depends on host</t>
         </r>
       </text>
     </comment>
@@ -366,7 +444,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -405,7 +483,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count</t>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
         </r>
       </text>
     </comment>
@@ -431,7 +509,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred</t>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
         </r>
       </text>
     </comment>
@@ -574,7 +652,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unique identifier assigned to a material sample used</t>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
         </r>
       </text>
     </comment>
@@ -587,7 +665,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>temperature of the sample</t>
+          <t>temperature of the sample at time of sampling</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/MIMS.me.human-skin.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMS.me.human-skin.4.0.xlsx
@@ -294,6 +294,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -378,7 +381,7 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">

--- a/ykodama/ddbj_packages/excel/MIMS.me.human-skin.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMS.me.human-skin.4.0.xlsx
@@ -188,12 +188,506 @@
         </r>
       </text>
     </comment>
+    <comment ref="N15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>history of dermatology disorders; can include multiple disorders</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dominant hand of the subject</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ethnicity of the subject</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Age of host at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>body mass index of the host, calculated as weight/(height)squared</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>substance produced by the host, e.g. stool, mucus, where the sample was obtained from</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>core body temperature of the host when sample was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>type of diet depending on the sample for animals omnivore, herbivore etc., for humans high-fat, meditteranean etc.; can include multiple diet types</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name of relevant disease, e.g. Salmonella gastroenteritis. For the controlled vocabulary, please see Human Disease Ontology, http://bioportal.bioontology.org/ontologies/1009 or MeSH, http://www.ncbi.nlm.nih.gov/mesh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the height of subject</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>content of last meal and time since feeding; can include multiple values</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>most frequent job performed by subject</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>resting pulse of the host, measured as beats per minute</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gender or physical sex of the host</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>a unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Type of tissue the initial sample was taken from. Controlled vocabulary, http://bioportal.bioontology.org/ontologies/1005</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total mass of the host at collection, the unit depends on host</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>can include multiple medication codes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>whether full medical history was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>any other measurement performed or parameter collected, that is not listed here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>oxygenation status of sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary publication or genome report in the form of pubmed ID, DOI or URL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Aerobic or anaerobic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Method or device employed for collecting sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Processing applied to the sample during or after isolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>salinity of sample, i.e. measure of total salt concentration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>duration for which sample was stored</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>location at which sample was stored, usually name of a specific freezer/room</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature at which sample was stored, e.g. -80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature of the sample at time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>specification of the time since last wash</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMS: metagenome/environmental, human-skin; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -288,6 +782,129 @@
   </si>
   <si>
     <t>lat_lon</t>
+  </si>
+  <si>
+    <t>chem_administration</t>
+  </si>
+  <si>
+    <t>dermatology_disord</t>
+  </si>
+  <si>
+    <t>dominant_hand</t>
+  </si>
+  <si>
+    <t>ethnicity</t>
+  </si>
+  <si>
+    <t>host_age</t>
+  </si>
+  <si>
+    <t>host_body_mass_index</t>
+  </si>
+  <si>
+    <t>host_body_product</t>
+  </si>
+  <si>
+    <t>host_body_temp</t>
+  </si>
+  <si>
+    <t>host_diet</t>
+  </si>
+  <si>
+    <t>host_disease</t>
+  </si>
+  <si>
+    <t>host_family_relationship</t>
+  </si>
+  <si>
+    <t>host_genotype</t>
+  </si>
+  <si>
+    <t>host_height</t>
+  </si>
+  <si>
+    <t>host_last_meal</t>
+  </si>
+  <si>
+    <t>host_occupation</t>
+  </si>
+  <si>
+    <t>host_phenotype</t>
+  </si>
+  <si>
+    <t>host_pulse</t>
+  </si>
+  <si>
+    <t>host_sex</t>
+  </si>
+  <si>
+    <t>host_subject_id</t>
+  </si>
+  <si>
+    <t>host_tissue_sampled</t>
+  </si>
+  <si>
+    <t>host_tot_mass</t>
+  </si>
+  <si>
+    <t>ihmc_medication_code</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>medic_hist_perform</t>
+  </si>
+  <si>
+    <t>misc_param</t>
+  </si>
+  <si>
+    <t>organism_count</t>
+  </si>
+  <si>
+    <t>oxy_stat_samp</t>
+  </si>
+  <si>
+    <t>perturbation</t>
+  </si>
+  <si>
+    <t>ref_biomaterial</t>
+  </si>
+  <si>
+    <t>rel_to_oxygen</t>
+  </si>
+  <si>
+    <t>samp_collect_device</t>
+  </si>
+  <si>
+    <t>samp_mat_process</t>
+  </si>
+  <si>
+    <t>samp_salinity</t>
+  </si>
+  <si>
+    <t>samp_size</t>
+  </si>
+  <si>
+    <t>samp_store_dur</t>
+  </si>
+  <si>
+    <t>samp_store_loc</t>
+  </si>
+  <si>
+    <t>samp_store_temp</t>
+  </si>
+  <si>
+    <t>samp_vol_we_dna_ext</t>
+  </si>
+  <si>
+    <t>source_material_id</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>time_since_last_wash</t>
   </si>
 </sst>
 </file>
@@ -705,77 +1322,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:54">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:54">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1">
+    <row r="3" spans="1:54" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1">
+    <row r="4" spans="1:54" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1">
+    <row r="5" spans="1:54" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:54">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:54">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:54">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:54">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:54">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:54">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:54">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:54">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:54">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:54">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -814,6 +1431,129 @@
       </c>
       <c r="M15" s="7" t="s">
         <v>26</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB15" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
